--- a/Documentation/sftw_process_docs/masterProductBacklog.xlsx
+++ b/Documentation/sftw_process_docs/masterProductBacklog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="161">
   <si>
     <t>Sprints</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Sprint 4 Backlog</t>
-  </si>
-  <si>
-    <t>Sprint 5 Backlog</t>
   </si>
   <si>
     <t>Product and Sprint Backlog with Summaries</t>
@@ -439,12 +436,6 @@
     <t>30%; pushed to Sprint 4</t>
   </si>
   <si>
-    <t>In Progress; On hold</t>
-  </si>
-  <si>
-    <t>30%; In progress</t>
-  </si>
-  <si>
     <t>Integration of Components (added 4-26-16)</t>
   </si>
   <si>
@@ -467,6 +458,51 @@
   </si>
   <si>
     <t>Create landing page after submission in GUI</t>
+  </si>
+  <si>
+    <t>Jimmy, naif</t>
+  </si>
+  <si>
+    <t>Tom, Jimmy</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Code to send email is complete, in project, and the methods created. Next is getting data to the method; some data is not in ready form</t>
+  </si>
+  <si>
+    <t>Code written; no time to integrate</t>
+  </si>
+  <si>
+    <t>Integration code for account database (account.aspx.cs)</t>
+  </si>
+  <si>
+    <t>Verification code on submit of credentials on welcome page (query account database)</t>
+  </si>
+  <si>
+    <t>Integration of appointment database code (calendar.aspx.cs)</t>
+  </si>
+  <si>
+    <t>In updateAvailableHoursTable(), check for appointments in appointment database, disable (or delete) timeslots that have already been requested.</t>
+  </si>
+  <si>
+    <t>Table disappears when a time is selected.</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>DateTime object to pass to the ICS sender (MM/DD/YYYY from calendar, and HOUR:MINUTE from radio button selection; with proper formatting from a function)</t>
+  </si>
+  <si>
+    <t>Code started on "server_sprint4", needs completed</t>
+  </si>
+  <si>
+    <t>Professor’s email producing when passed to ICS sender?</t>
+  </si>
+  <si>
+    <t>Sprint 5 Backlog (Future)</t>
   </si>
 </sst>
 </file>
@@ -581,7 +617,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,6 +745,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1073,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A91" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1096,11 +1133,11 @@
       <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="C1" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="20" t="s">
         <v>34</v>
       </c>
@@ -1110,14 +1147,14 @@
       <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -1129,7 +1166,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="54"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="22" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +1178,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="22" t="s">
         <v>28</v>
       </c>
@@ -1153,7 +1190,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="54"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="22" t="s">
         <v>23</v>
       </c>
@@ -1165,9 +1202,9 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="24">
         <v>42488</v>
@@ -1213,10 +1250,10 @@
         <v>42465</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+        <v>65</v>
+      </c>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1232,12 +1269,12 @@
         <v>42479</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="58"/>
+        <v>65</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1253,10 +1290,10 @@
         <v>42486</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+        <v>65</v>
+      </c>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1274,8 +1311,8 @@
       <c r="E13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1283,8 +1320,8 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1317,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>17</v>
@@ -1337,20 +1374,20 @@
         <v>0</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1358,20 +1395,20 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1379,20 +1416,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="18">
         <v>2</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,20 +1437,20 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="18">
         <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1421,20 +1458,20 @@
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="18">
         <v>3</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,20 +1479,20 @@
         <v>5</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="18">
         <v>3</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,20 +1500,20 @@
         <v>6</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,20 +1521,20 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="18">
         <v>3</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,20 +1542,20 @@
         <v>8</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1526,10 +1563,10 @@
         <v>9</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
@@ -1580,7 +1617,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,16 +1648,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -1629,16 +1666,16 @@
         <v>2</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="13"/>
     </row>
@@ -1647,16 +1684,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="13"/>
     </row>
@@ -1665,16 +1702,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="13"/>
     </row>
@@ -1706,8 +1743,8 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="55"/>
-      <c r="C41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
@@ -1755,16 +1792,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="15">
         <v>6</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F45" s="10"/>
     </row>
@@ -1773,22 +1810,22 @@
         <v>2</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="15">
         <v>6</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="41">
         <v>0.8</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
@@ -1796,19 +1833,19 @@
         <v>3</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="15">
         <v>6</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1816,16 +1853,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="15">
         <v>6</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F48" s="10"/>
     </row>
@@ -1834,16 +1871,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F49" s="31"/>
     </row>
@@ -1852,19 +1889,19 @@
         <v>6</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1872,19 +1909,19 @@
         <v>7</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,19 +1929,19 @@
         <v>8</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1912,20 +1949,20 @@
         <v>9</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E53" s="41">
         <v>0.6</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1933,22 +1970,22 @@
         <v>10</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" s="41">
         <v>0.6</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1956,16 +1993,16 @@
         <v>11</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="31">
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
@@ -1973,20 +2010,20 @@
         <v>12</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="11">
         <v>4</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E56" s="41">
         <v>0.75</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1994,19 +2031,19 @@
         <v>13</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E57" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="G57" s="10"/>
     </row>
@@ -2015,13 +2052,13 @@
         <v>14</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" s="39">
         <v>2</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58" s="41">
         <v>0.5</v>
@@ -2079,19 +2116,19 @@
         <v>1</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="1">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,16 +2136,16 @@
         <v>2</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" s="13"/>
     </row>
@@ -2117,16 +2154,16 @@
         <v>3</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" s="13"/>
     </row>
@@ -2135,16 +2172,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="13"/>
     </row>
@@ -2153,16 +2190,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="13"/>
     </row>
@@ -2171,16 +2208,16 @@
         <v>6</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="13"/>
     </row>
@@ -2189,14 +2226,14 @@
         <v>7</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F69" s="13"/>
     </row>
@@ -2205,22 +2242,22 @@
         <v>8</v>
       </c>
       <c r="B70" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F70" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -2228,20 +2265,20 @@
         <v>9</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F71" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -2249,19 +2286,19 @@
         <v>10</v>
       </c>
       <c r="B72" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="43" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -2269,19 +2306,19 @@
         <v>11</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
@@ -2289,14 +2326,14 @@
         <v>12</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F74" s="13"/>
     </row>
@@ -2305,16 +2342,16 @@
         <v>13</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E75" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F75" s="13"/>
     </row>
@@ -2323,16 +2360,16 @@
         <v>14</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F76" s="13"/>
     </row>
@@ -2341,16 +2378,16 @@
         <v>15</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" s="13"/>
     </row>
@@ -2359,94 +2396,94 @@
         <v>16</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:7" s="44" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C79" s="39">
         <v>2</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="45"/>
     </row>
     <row r="80" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="5">
         <v>1</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E80" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F80" s="45"/>
     </row>
     <row r="81" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="44" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" s="15">
         <v>6</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F82" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -2454,16 +2491,16 @@
         <v>19</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="15">
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F83" s="46"/>
     </row>
@@ -2511,19 +2548,19 @@
         <v>1</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" t="s">
         <v>121</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E87" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,16 +2568,19 @@
         <v>2</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E88" s="41" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="E88" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="G88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,16 +2588,19 @@
         <v>3</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="1">
         <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>65</v>
+        <v>148</v>
+      </c>
+      <c r="G89" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2565,157 +2608,143 @@
         <v>4</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="1">
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E90" s="41" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F91" s="13"/>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F92" s="13"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>125</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:7" s="49" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>125</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>9</v>
       </c>
       <c r="B95" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:7" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C96" s="1">
         <v>6</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>125</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:7" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>11</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F97" s="13"/>
     </row>
@@ -2729,7 +2758,7 @@
     </row>
     <row r="99" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,35 +2784,90 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>1</v>
       </c>
+      <c r="B101" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E101" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
+      <c r="B102" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E102" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="52" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3</v>
       </c>
+      <c r="B103" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="52" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>4</v>
       </c>
+      <c r="B104" s="13" t="s">
+        <v>154</v>
+      </c>
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>5</v>
       </c>
+      <c r="B105" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="C105" s="1"/>
+      <c r="E105" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="52" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>6</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E106" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F106" s="52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>7</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E107" s="52" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Documentation/sftw_process_docs/masterProductBacklog.xlsx
+++ b/Documentation/sftw_process_docs/masterProductBacklog.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A91" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="24">
-        <v>42486</v>
+        <v>42494</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="20"/>
@@ -1183,7 +1183,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="24">
-        <v>42486</v>
+        <v>42494</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="20"/>
@@ -1195,7 +1195,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="24">
-        <v>42488</v>
+        <v>42494</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="20"/>
@@ -1207,7 +1207,7 @@
         <v>77</v>
       </c>
       <c r="D7" s="24">
-        <v>42488</v>
+        <v>42494</v>
       </c>
       <c r="E7" s="42"/>
     </row>
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
